--- a/backend/data/SelectedTeams.xlsx
+++ b/backend/data/SelectedTeams.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\REGISTRATION\Dev_hack1\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BC3A68D-E174-4EF2-B74F-D1BECD2A5C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D6AE9E-67A4-4B4C-BE1D-B73A3EEA35F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{88967F07-2EC0-4E1C-9873-DD34BC2F538A}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="273">
   <si>
     <t>TEAM NO</t>
   </si>
@@ -704,9 +704,6 @@
   </si>
   <si>
     <t>Anviga</t>
-  </si>
-  <si>
-    <t>Tontadarya College of Engineering , Gadag</t>
   </si>
   <si>
     <t>Ananthajith K V</t>
@@ -1684,7 +1681,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958158FB-00F3-4A69-8082-30AE700A2CB1}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2451,157 +2450,157 @@
         <v>227</v>
       </c>
       <c r="C35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" t="s">
         <v>228</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>229</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>230</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>231</v>
-      </c>
-      <c r="G35" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>232</v>
+      </c>
+      <c r="B36" t="s">
         <v>233</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>234</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>235</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>236</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>237</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>238</v>
-      </c>
-      <c r="G36" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>239</v>
+      </c>
+      <c r="B37" t="s">
         <v>240</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>241</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>242</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>243</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>244</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>245</v>
-      </c>
-      <c r="G37" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>246</v>
+      </c>
+      <c r="B38" t="s">
         <v>247</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>248</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>249</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>250</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>251</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>252</v>
-      </c>
-      <c r="G38" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>253</v>
+      </c>
+      <c r="B39" t="s">
         <v>254</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
+        <v>261</v>
+      </c>
+      <c r="D39" t="s">
         <v>255</v>
       </c>
-      <c r="C39" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>256</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>257</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>258</v>
-      </c>
-      <c r="G39" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>259</v>
+      </c>
+      <c r="B40" t="s">
         <v>260</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>261</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>262</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>263</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>264</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>265</v>
-      </c>
-      <c r="G40" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>266</v>
+      </c>
+      <c r="B41" t="s">
         <v>267</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>268</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>269</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>270</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>271</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>272</v>
-      </c>
-      <c r="G41" t="s">
-        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/SelectedTeams.xlsx
+++ b/backend/data/SelectedTeams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\REGISTRATION\Dev_hack1\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D6AE9E-67A4-4B4C-BE1D-B73A3EEA35F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7F32D0-68B9-4D8E-98E4-D6AD3504C1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{88967F07-2EC0-4E1C-9873-DD34BC2F538A}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="274">
   <si>
     <t>TEAM NO</t>
   </si>
@@ -415,9 +415,6 @@
     <t>HEMA CHANDU K R</t>
   </si>
   <si>
-    <t xml:space="preserve"> BHAVANI H T DEEKSHA H M</t>
-  </si>
-  <si>
     <t>DH-028</t>
   </si>
   <si>
@@ -839,6 +836,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Nikitha Poojary </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BHAVANI H T</t>
+  </si>
+  <si>
+    <t>DEEKSHA H M</t>
   </si>
 </sst>
 </file>
@@ -1681,8 +1684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958158FB-00F3-4A69-8082-30AE700A2CB1}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2123,484 +2126,487 @@
         <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>131</v>
+        <v>272</v>
+      </c>
+      <c r="G20" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" t="s">
         <v>132</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>133</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>134</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>135</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>136</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>137</v>
-      </c>
-      <c r="G21" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" t="s">
         <v>139</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>140</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>141</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>142</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>143</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>144</v>
-      </c>
-      <c r="G22" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" t="s">
         <v>146</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>147</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>148</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>149</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>150</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>151</v>
-      </c>
-      <c r="G23" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" t="s">
         <v>153</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>154</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>155</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>156</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>157</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>158</v>
-      </c>
-      <c r="G24" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" t="s">
         <v>160</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>161</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>162</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>163</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>164</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>165</v>
-      </c>
-      <c r="G25" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" t="s">
         <v>167</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>168</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>169</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>170</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>171</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>172</v>
-      </c>
-      <c r="G26" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" t="s">
         <v>174</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>175</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>176</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>177</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>178</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>179</v>
-      </c>
-      <c r="G27" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" t="s">
         <v>181</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" t="s">
         <v>182</v>
       </c>
-      <c r="C28" t="s">
-        <v>176</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>183</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>184</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>185</v>
-      </c>
-      <c r="G28" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" t="s">
         <v>187</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>188</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>189</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>190</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>191</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>192</v>
-      </c>
-      <c r="G29" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" t="s">
         <v>194</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>195</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>196</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>197</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>198</v>
-      </c>
-      <c r="F30" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>199</v>
+      </c>
+      <c r="B31" t="s">
         <v>200</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>201</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>202</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>203</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>204</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>205</v>
-      </c>
-      <c r="G31" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>206</v>
+      </c>
+      <c r="B32" t="s">
         <v>207</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>208</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>209</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>210</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>211</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>212</v>
-      </c>
-      <c r="G32" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>213</v>
+      </c>
+      <c r="B33" t="s">
         <v>214</v>
-      </c>
-      <c r="B33" t="s">
-        <v>215</v>
       </c>
       <c r="C33" t="s">
         <v>123</v>
       </c>
       <c r="D33" t="s">
+        <v>215</v>
+      </c>
+      <c r="E33" t="s">
         <v>216</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>217</v>
-      </c>
-      <c r="F33" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>218</v>
+      </c>
+      <c r="B34" t="s">
         <v>219</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>220</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>221</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>222</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>223</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>224</v>
-      </c>
-      <c r="G34" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>225</v>
+      </c>
+      <c r="B35" t="s">
         <v>226</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" t="s">
         <v>227</v>
       </c>
-      <c r="C35" t="s">
-        <v>148</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>228</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>229</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>230</v>
-      </c>
-      <c r="G35" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B36" t="s">
         <v>232</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>233</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>234</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>235</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>236</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>237</v>
-      </c>
-      <c r="G36" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" t="s">
         <v>239</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>240</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>241</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>242</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>243</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>244</v>
-      </c>
-      <c r="G37" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>245</v>
+      </c>
+      <c r="B38" t="s">
         <v>246</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>247</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>248</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>249</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>250</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>251</v>
-      </c>
-      <c r="G38" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>252</v>
+      </c>
+      <c r="B39" t="s">
         <v>253</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
+        <v>260</v>
+      </c>
+      <c r="D39" t="s">
         <v>254</v>
       </c>
-      <c r="C39" t="s">
-        <v>261</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>255</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>256</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>257</v>
-      </c>
-      <c r="G39" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>258</v>
+      </c>
+      <c r="B40" t="s">
         <v>259</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>260</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>261</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>262</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>263</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>264</v>
-      </c>
-      <c r="G40" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>265</v>
+      </c>
+      <c r="B41" t="s">
         <v>266</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>267</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>268</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>269</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>270</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>271</v>
-      </c>
-      <c r="G41" t="s">
-        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/SelectedTeams.xlsx
+++ b/backend/data/SelectedTeams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\REGISTRATION\Dev_hack1\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7F32D0-68B9-4D8E-98E4-D6AD3504C1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D3C2DF-C576-4158-A32C-45AE8A557B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{88967F07-2EC0-4E1C-9873-DD34BC2F538A}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="315">
   <si>
     <t>TEAM NO</t>
   </si>
@@ -842,6 +842,129 @@
   </si>
   <si>
     <t>DEEKSHA H M</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>hjpreetham1@gmail.com</t>
+  </si>
+  <si>
+    <t>1ms24cs408@msrit.edu</t>
+  </si>
+  <si>
+    <t>elavigimanoj@gmail.com</t>
+  </si>
+  <si>
+    <t>mm722310@gmail.com</t>
+  </si>
+  <si>
+    <t>mohammednaurez04@gmail.com</t>
+  </si>
+  <si>
+    <t>srujanranganath2005@gmail.com</t>
+  </si>
+  <si>
+    <t>shreyalshreyasl5@gmail.com</t>
+  </si>
+  <si>
+    <t>varun030406@gmail.com</t>
+  </si>
+  <si>
+    <t>poornashree666@gmail.com</t>
+  </si>
+  <si>
+    <t>vinaym112007@gmail.com</t>
+  </si>
+  <si>
+    <t>noorlaibamaheen@gmail.com</t>
+  </si>
+  <si>
+    <t>jayanthdn6073@gmail.com</t>
+  </si>
+  <si>
+    <t>prabhushreyank@gmail.com</t>
+  </si>
+  <si>
+    <t>asif93532127@gmail.com</t>
+  </si>
+  <si>
+    <t>chethansomeshwar101@gmail.com</t>
+  </si>
+  <si>
+    <t>manasadevikaas@gmail.com</t>
+  </si>
+  <si>
+    <t>nandanrnandanr1234@gmail.com</t>
+  </si>
+  <si>
+    <t>hemanthsgowdru2006@gmail.com</t>
+  </si>
+  <si>
+    <t>hemachandu332004@gmail.com</t>
+  </si>
+  <si>
+    <t>chandrakalatkumbar@gmail.com</t>
+  </si>
+  <si>
+    <t>chandranathta92@gmail.com</t>
+  </si>
+  <si>
+    <t>gcn3888@gmail.com</t>
+  </si>
+  <si>
+    <t>poojashree5002@gmail.com</t>
+  </si>
+  <si>
+    <t>swetharanihsm@gmail.com</t>
+  </si>
+  <si>
+    <t>rohanhalaj@gmail.com</t>
+  </si>
+  <si>
+    <t>kiranbrkiran00@gmail.com</t>
+  </si>
+  <si>
+    <t>prajuuganiga17@gmail.com</t>
+  </si>
+  <si>
+    <t>akshata052005@gmail.com</t>
+  </si>
+  <si>
+    <t>bhavanahp572@gmail.com</t>
+  </si>
+  <si>
+    <t>ankitagmallesh@gmail.com</t>
+  </si>
+  <si>
+    <t>grharsha128@gmail.com</t>
+  </si>
+  <si>
+    <t>17adhanya@gmail.com</t>
+  </si>
+  <si>
+    <t>dhritits23@gmail.com</t>
+  </si>
+  <si>
+    <t>kvananthjith@gmail.com</t>
+  </si>
+  <si>
+    <t>anjanasureshkumar18@gmail.com</t>
+  </si>
+  <si>
+    <t>balajipoojar18@gmail.com</t>
+  </si>
+  <si>
+    <t>abhilashabhi1701@gmail.com</t>
+  </si>
+  <si>
+    <t>sanikaramash@gmail.com</t>
+  </si>
+  <si>
+    <t>hitasmihita@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anushamegharaj@gmail.com </t>
   </si>
 </sst>
 </file>
@@ -1682,15 +1805,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958158FB-00F3-4A69-8082-30AE700A2CB1}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.21875" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" customWidth="1"/>
+    <col min="6" max="6" width="25.21875" customWidth="1"/>
+    <col min="7" max="7" width="24.77734375" customWidth="1"/>
+    <col min="8" max="8" width="42.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1712,8 +1844,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1735,8 +1870,11 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1758,8 +1896,11 @@
       <c r="G3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1781,8 +1922,11 @@
       <c r="G4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1801,8 +1945,11 @@
       <c r="F5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1821,8 +1968,11 @@
       <c r="F6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1844,8 +1994,11 @@
       <c r="G7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1867,8 +2020,11 @@
       <c r="G8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -1890,8 +2046,11 @@
       <c r="G9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -1913,8 +2072,11 @@
       <c r="G10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -1936,8 +2098,11 @@
       <c r="G11" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -1959,8 +2124,11 @@
       <c r="G12" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -1982,8 +2150,11 @@
       <c r="G13" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>89</v>
       </c>
@@ -2005,8 +2176,11 @@
       <c r="G14" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>96</v>
       </c>
@@ -2028,8 +2202,11 @@
       <c r="G15" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -2051,8 +2228,11 @@
       <c r="G16" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -2071,8 +2251,11 @@
       <c r="F17" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>116</v>
       </c>
@@ -2088,8 +2271,11 @@
       <c r="E18" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>121</v>
       </c>
@@ -2111,8 +2297,11 @@
       <c r="G19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>128</v>
       </c>
@@ -2131,8 +2320,11 @@
       <c r="G20" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -2154,8 +2346,11 @@
       <c r="G21" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>138</v>
       </c>
@@ -2177,8 +2372,11 @@
       <c r="G22" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>145</v>
       </c>
@@ -2200,8 +2398,11 @@
       <c r="G23" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>152</v>
       </c>
@@ -2223,8 +2424,11 @@
       <c r="G24" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>159</v>
       </c>
@@ -2246,8 +2450,11 @@
       <c r="G25" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>166</v>
       </c>
@@ -2269,8 +2476,11 @@
       <c r="G26" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>173</v>
       </c>
@@ -2292,8 +2502,11 @@
       <c r="G27" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>180</v>
       </c>
@@ -2315,8 +2528,11 @@
       <c r="G28" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>186</v>
       </c>
@@ -2338,8 +2554,11 @@
       <c r="G29" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>193</v>
       </c>
@@ -2358,8 +2577,11 @@
       <c r="F30" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>199</v>
       </c>
@@ -2381,8 +2603,11 @@
       <c r="G31" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>206</v>
       </c>
@@ -2404,8 +2629,11 @@
       <c r="G32" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>213</v>
       </c>
@@ -2424,8 +2652,11 @@
       <c r="F33" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>218</v>
       </c>
@@ -2447,8 +2678,11 @@
       <c r="G34" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>225</v>
       </c>
@@ -2470,8 +2704,11 @@
       <c r="G35" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>231</v>
       </c>
@@ -2493,8 +2730,11 @@
       <c r="G36" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>238</v>
       </c>
@@ -2516,8 +2756,11 @@
       <c r="G37" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>245</v>
       </c>
@@ -2539,8 +2782,11 @@
       <c r="G38" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>252</v>
       </c>
@@ -2562,8 +2808,11 @@
       <c r="G39" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>258</v>
       </c>
@@ -2585,8 +2834,11 @@
       <c r="G40" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>265</v>
       </c>
@@ -2607,6 +2859,9 @@
       </c>
       <c r="G41" t="s">
         <v>271</v>
+      </c>
+      <c r="H41" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
